--- a/APM files/128788863/b.xlsx
+++ b/APM files/128788863/b.xlsx
@@ -5,50 +5,36 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\dev\workspace\APM files\128829237\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\dev\workspace\APM files\128788863\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8260FC9-B9D0-472B-AF0C-310ED174565D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F0FADC4-E768-4BF1-A395-996B633A85E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="2370" windowWidth="22905" windowHeight="16200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14445" yWindow="5655" windowWidth="23175" windowHeight="14085" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Prodvider ID</t>
-  </si>
-  <si>
-    <t>V5961</t>
+    <t>EID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,31 +42,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -92,17 +60,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -381,16 +345,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -398,118 +359,23 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>47211</v>
+      <c r="A2">
+        <v>38231185</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>36381</v>
+      <c r="A3">
+        <v>38161830</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>37631</v>
+      <c r="A4">
+        <v>38161847</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>47651</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>72371</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>41091</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>34441</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>45051</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>41101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>32601</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>30131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>40031</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>54531</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>40521</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>47491</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>36551</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>76521</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>13411</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>42891</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>59731</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>37651</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>78591</v>
+      <c r="A5">
+        <v>37833667</v>
       </c>
     </row>
   </sheetData>
